--- a/benchSearch/Bench search.xlsx
+++ b/benchSearch/Bench search.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19226"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{60423B95-89AA-45FA-B343-8ABACDFBBF34}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,9 +19,53 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+  <si>
+    <t>multiple word look up</t>
+  </si>
+  <si>
+    <t>trial number</t>
+  </si>
+  <si>
+    <t>Average</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -28,16 +73,316 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -45,15 +390,206 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="42">
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -66,6 +602,27 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0AB31B2C-36CD-4B71-8B6E-65BE85ECF3DE}" name="Table1" displayName="Table1" ref="A2:L6" totalsRowShown="0">
+  <autoFilter ref="A2:L6" xr:uid="{C2852063-089A-4CC8-ADC4-44B9BA36C4A6}"/>
+  <tableColumns count="12">
+    <tableColumn id="1" xr3:uid="{DF017E88-86B2-4A90-88ED-763DDE6DA27A}" name="trial number"/>
+    <tableColumn id="2" xr3:uid="{8CE336FE-55A7-4DD9-9FF4-DEFB591CA146}" name="0"/>
+    <tableColumn id="3" xr3:uid="{46EA5585-18DF-4EBF-B638-6072C4F61ECA}" name="1"/>
+    <tableColumn id="4" xr3:uid="{3E04F748-1264-4883-BD0B-1D9E68136D83}" name="2"/>
+    <tableColumn id="5" xr3:uid="{A1339E37-50CA-4153-9826-C2358450B0ED}" name="3"/>
+    <tableColumn id="6" xr3:uid="{2DC6412C-193D-4110-BDE0-67CE22D31DF1}" name="4"/>
+    <tableColumn id="7" xr3:uid="{94C44266-FBD4-4F69-B1C9-99C4A168D810}" name="5"/>
+    <tableColumn id="8" xr3:uid="{963909DD-B4E0-4CD3-9AFD-575A59AFCC8F}" name="6"/>
+    <tableColumn id="9" xr3:uid="{C5582312-1E4E-444B-AC07-C22EDC0E7DF0}" name="7"/>
+    <tableColumn id="10" xr3:uid="{4CCEEF23-3003-4543-8261-61C65972666D}" name="8"/>
+    <tableColumn id="11" xr3:uid="{655A21C6-3198-41EC-9341-B31D98BB0ACE}" name="9"/>
+    <tableColumn id="12" xr3:uid="{25F223C0-6AF7-4936-BBBC-6A7F4C4892CB}" name="Average"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -330,13 +887,218 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:L6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L6" sqref="A2:L6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="13.21875" customWidth="1"/>
+    <col min="12" max="12" width="9.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2">
+        <v>300447800</v>
+      </c>
+      <c r="C3" s="2">
+        <v>298439200</v>
+      </c>
+      <c r="D3" s="2">
+        <v>118978300</v>
+      </c>
+      <c r="E3" s="2">
+        <v>104431400</v>
+      </c>
+      <c r="F3" s="2">
+        <v>96485200</v>
+      </c>
+      <c r="G3" s="2">
+        <v>100789500</v>
+      </c>
+      <c r="H3" s="2">
+        <v>96293800</v>
+      </c>
+      <c r="I3" s="2">
+        <v>104269700</v>
+      </c>
+      <c r="J3" s="2">
+        <v>105145600</v>
+      </c>
+      <c r="K3" s="2">
+        <v>101459200</v>
+      </c>
+      <c r="L3" s="2">
+        <v>142673970</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>5</v>
+      </c>
+      <c r="B4" s="2">
+        <v>567629200</v>
+      </c>
+      <c r="C4" s="2">
+        <v>684456700</v>
+      </c>
+      <c r="D4" s="2">
+        <v>427927900</v>
+      </c>
+      <c r="E4" s="2">
+        <v>399021400</v>
+      </c>
+      <c r="F4" s="2">
+        <v>398817700</v>
+      </c>
+      <c r="G4" s="2">
+        <v>455018900</v>
+      </c>
+      <c r="H4" s="2">
+        <v>402970200</v>
+      </c>
+      <c r="I4" s="2">
+        <v>397762700</v>
+      </c>
+      <c r="J4" s="2">
+        <v>512369400</v>
+      </c>
+      <c r="K4" s="2">
+        <v>416836200</v>
+      </c>
+      <c r="L4" s="2">
+        <v>142673970</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>10</v>
+      </c>
+      <c r="B5" s="2">
+        <v>1146279700</v>
+      </c>
+      <c r="C5" s="2">
+        <v>711098700</v>
+      </c>
+      <c r="D5" s="2">
+        <v>562795500</v>
+      </c>
+      <c r="E5" s="2">
+        <v>663357100</v>
+      </c>
+      <c r="F5" s="2">
+        <v>609961100</v>
+      </c>
+      <c r="G5" s="2">
+        <v>549466000</v>
+      </c>
+      <c r="H5" s="2">
+        <v>529098000</v>
+      </c>
+      <c r="I5" s="2">
+        <v>577677400</v>
+      </c>
+      <c r="J5" s="2">
+        <v>748129300</v>
+      </c>
+      <c r="K5" s="2">
+        <v>548191700</v>
+      </c>
+      <c r="L5" s="2">
+        <v>124087570</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>15</v>
+      </c>
+      <c r="B6" s="2">
+        <v>1545515600</v>
+      </c>
+      <c r="C6" s="2">
+        <v>1452842700</v>
+      </c>
+      <c r="D6" s="2">
+        <v>1464120300</v>
+      </c>
+      <c r="E6" s="2">
+        <v>1088925600</v>
+      </c>
+      <c r="F6" s="2">
+        <v>1741340800</v>
+      </c>
+      <c r="G6" s="2">
+        <v>1120043200</v>
+      </c>
+      <c r="H6" s="2">
+        <v>1084856200</v>
+      </c>
+      <c r="I6" s="2">
+        <v>1293678600</v>
+      </c>
+      <c r="J6" s="2">
+        <v>1099357300</v>
+      </c>
+      <c r="K6" s="2">
+        <v>966515300</v>
+      </c>
+      <c r="L6" s="2">
+        <v>177167100</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>